--- a/templates/wfh_data_template.xlsx
+++ b/templates/wfh_data_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>RD Name</t>
   </si>
@@ -37,37 +37,34 @@
     <t>abc</t>
   </si>
   <si>
+    <t>John Vendor</t>
+  </si>
+  <si>
+    <t>Jane Vendor</t>
+  </si>
+  <si>
     <t>MTB_WCS_MSE7_MS25</t>
   </si>
   <si>
+    <t>MTB_WCS_MSE7_MS1</t>
+  </si>
+  <si>
+    <t>MTB_WCS_MSE7_MS2</t>
+  </si>
+  <si>
     <t>Vendor</t>
   </si>
   <si>
     <t>7/16/2025</t>
   </si>
   <si>
-    <t>7/7/2025</t>
-  </si>
-  <si>
-    <t>6/20/2025</t>
-  </si>
-  <si>
-    <t>6/4/2025</t>
-  </si>
-  <si>
-    <t>5/30/2025</t>
-  </si>
-  <si>
-    <t>5/26/2025</t>
-  </si>
-  <si>
-    <t>5/20/2025</t>
-  </si>
-  <si>
     <t>8/5/2025</t>
   </si>
   <si>
-    <t>5/27/2025</t>
+    <t>8/10/2025</t>
+  </si>
+  <si>
+    <t>8/12/2025</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,16 +453,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -473,19 +470,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -493,122 +490,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
